--- a/inst/extdata/Francisella/label-free_Francisella_annotation.xlsx
+++ b/inst/extdata/Francisella/label-free_Francisella_annotation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
@@ -105,7 +105,7 @@
     <t>b_6</t>
   </si>
   <si>
-    <t>phenotype</t>
+    <t>genotype</t>
   </si>
 </sst>
 </file>
@@ -517,9 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
